--- a/parabolic/2025/08/08/parabolic.xlsx
+++ b/parabolic/2025/08/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D2" t="n">
-        <v>184400</v>
+        <v>316000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D3" t="n">
-        <v>200800</v>
+        <v>276000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>890100</v>
+        <v>1124500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>8783</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,16 +574,131 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>247</v>
+        <v>619</v>
       </c>
       <c r="D6" t="n">
-        <v>164000</v>
+        <v>119100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>164</v>
+      </c>
+      <c r="D7" t="n">
+        <v>199200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>8783</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>209900</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>753</v>
+      </c>
+      <c r="D9" t="n">
+        <v>133300</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>843</v>
+      </c>
+      <c r="D10" t="n">
+        <v>117900</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>967</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112900</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/08/parabolic.xlsx
+++ b/parabolic/2025/08/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>519</v>
+        <v>388</v>
       </c>
       <c r="D2" t="n">
-        <v>316000</v>
+        <v>4607200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3744</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="D3" t="n">
-        <v>276000</v>
+        <v>408100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>489</v>
       </c>
       <c r="D4" t="n">
-        <v>1124500</v>
+        <v>414800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>631</v>
+        <v>421</v>
       </c>
       <c r="D5" t="n">
-        <v>298600</v>
+        <v>122100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>619</v>
+        <v>145</v>
       </c>
       <c r="D6" t="n">
-        <v>119100</v>
+        <v>1240400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>164</v>
+        <v>631</v>
       </c>
       <c r="D7" t="n">
-        <v>199200</v>
+        <v>298600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8783</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>247</v>
+        <v>824</v>
       </c>
       <c r="D8" t="n">
-        <v>209900</v>
+        <v>113100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>753</v>
+        <v>612</v>
       </c>
       <c r="D9" t="n">
-        <v>133300</v>
+        <v>169000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9229</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>843</v>
+        <v>165</v>
       </c>
       <c r="D10" t="n">
-        <v>117900</v>
+        <v>227600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9997</t>
+          <t>8783</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,85 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>967</v>
+        <v>246</v>
       </c>
       <c r="D11" t="n">
-        <v>112900</v>
+        <v>286600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>757</v>
+      </c>
+      <c r="D12" t="n">
+        <v>184900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>839</v>
+      </c>
+      <c r="D13" t="n">
+        <v>141600</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>968</v>
+      </c>
+      <c r="D14" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/08/parabolic.xlsx
+++ b/parabolic/2025/08/08/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D2" t="n">
-        <v>4607200</v>
+        <v>6822800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" t="n">
-        <v>408100</v>
+        <v>493900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D4" t="n">
-        <v>414800</v>
+        <v>531600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>421</v>
+        <v>972</v>
       </c>
       <c r="D5" t="n">
-        <v>122100</v>
+        <v>105400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D6" t="n">
-        <v>1240400</v>
+        <v>133500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>631</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
-        <v>298600</v>
+        <v>1359700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>824</v>
+        <v>631</v>
       </c>
       <c r="D8" t="n">
-        <v>113100</v>
+        <v>333500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>612</v>
+        <v>824</v>
       </c>
       <c r="D9" t="n">
-        <v>169000</v>
+        <v>132200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>165</v>
+        <v>610</v>
       </c>
       <c r="D10" t="n">
-        <v>227600</v>
+        <v>237000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8783</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="D11" t="n">
-        <v>286600</v>
+        <v>304600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>7831</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>757</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>184900</v>
+        <v>127800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9229</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>839</v>
+        <v>526</v>
       </c>
       <c r="D13" t="n">
-        <v>141600</v>
+        <v>128600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9997</t>
+          <t>8783</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,85 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>968</v>
+        <v>245</v>
       </c>
       <c r="D14" t="n">
-        <v>172000</v>
+        <v>349100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>761</v>
+      </c>
+      <c r="D15" t="n">
+        <v>259200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>837</v>
+      </c>
+      <c r="D16" t="n">
+        <v>216600</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>968</v>
+      </c>
+      <c r="D17" t="n">
+        <v>308500</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
